--- a/London Underground data.xlsx
+++ b/London Underground data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ic01\Documents\TEACHING\2017-18\CAM\Greenwich\cwk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shahz\Documents\UNI\ADS\Dijkstra\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30007FF-99EC-43E2-A752-031CBB7A7C29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21405" windowHeight="7290"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1" iterateCount="30000" iterateDelta="1E-10"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="290">
   <si>
     <t>Harrow &amp; Wealdstone</t>
   </si>
@@ -899,7 +900,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -965,7 +966,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="Picture 123" descr="http://tubephotos.dannycox.me.uk/images/blank.gif"/>
+        <xdr:cNvPr id="124" name="Picture 123" descr="http://tubephotos.dannycox.me.uk/images/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1020,7 +1027,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="126" name="Picture 125" descr="http://tubephotos.dannycox.me.uk/images/blank.gif"/>
+        <xdr:cNvPr id="126" name="Picture 125" descr="http://tubephotos.dannycox.me.uk/images/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1075,7 +1088,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="128" name="Picture 127" descr="http://tubephotos.dannycox.me.uk/images/blank.gif"/>
+        <xdr:cNvPr id="128" name="Picture 127" descr="http://tubephotos.dannycox.me.uk/images/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1130,7 +1149,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="130" name="Picture 129" descr="http://tubephotos.dannycox.me.uk/images/blank.gif"/>
+        <xdr:cNvPr id="130" name="Picture 129" descr="http://tubephotos.dannycox.me.uk/images/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1185,7 +1210,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="132" name="Picture 131" descr="http://tubephotos.dannycox.me.uk/images/blank.gif"/>
+        <xdr:cNvPr id="132" name="Picture 131" descr="http://tubephotos.dannycox.me.uk/images/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1490,23 +1521,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
-      <selection activeCell="C688" sqref="C688"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.06640625" customWidth="1"/>
-    <col min="2" max="2" width="19.53125" customWidth="1"/>
-    <col min="3" max="3" width="18.06640625" customWidth="1"/>
-    <col min="4" max="4" width="11.265625" customWidth="1"/>
-    <col min="8" max="8" width="9.06640625" customWidth="1"/>
+    <col min="1" max="1" width="18.05078125" customWidth="1"/>
+    <col min="2" max="2" width="19.5234375" customWidth="1"/>
+    <col min="3" max="3" width="18.05078125" customWidth="1"/>
+    <col min="4" max="4" width="11.26171875" customWidth="1"/>
+    <col min="8" max="8" width="9.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1514,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1522,7 +1553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1530,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1538,7 +1569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1546,7 +1577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1562,7 +1593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1570,7 +1601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1578,7 +1609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1586,7 +1617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1594,7 +1625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1602,7 +1633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1610,7 +1641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1618,7 +1649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1626,7 +1657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1634,7 +1665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1642,7 +1673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1650,7 +1681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1658,7 +1689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1666,7 +1697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1674,7 +1705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1682,7 +1713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1690,7 +1721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1698,7 +1729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1706,7 +1737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1720,7 +1751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1734,7 +1765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1748,7 +1779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1762,7 +1793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1776,7 +1807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1790,7 +1821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1804,7 +1835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1818,7 +1849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1832,7 +1863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1846,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1860,7 +1891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1874,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1888,7 +1919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1902,7 +1933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1916,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1930,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1944,7 +1975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1958,7 +1989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -1972,7 +2003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1986,7 +2017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -2000,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -2014,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -2028,7 +2059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -2042,7 +2073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -2050,7 +2081,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -2058,7 +2089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -2066,7 +2097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -2074,7 +2105,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -2082,7 +2113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -2090,7 +2121,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -2098,7 +2129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -2106,7 +2137,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -2114,7 +2145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -2122,7 +2153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -2130,7 +2161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -2138,7 +2169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -2146,7 +2177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -2154,7 +2185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -2162,7 +2193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -2170,7 +2201,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -2178,7 +2209,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -2186,7 +2217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -2194,7 +2225,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -2202,7 +2233,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2210,7 +2241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -2218,7 +2249,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2226,7 +2257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -2234,7 +2265,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -2242,7 +2273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2250,7 +2281,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2258,7 +2289,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2266,7 +2297,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2274,7 +2305,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -2282,7 +2313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -2290,7 +2321,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -2298,7 +2329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -2306,7 +2337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>76</v>
       </c>
@@ -2314,7 +2345,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>76</v>
       </c>
@@ -2322,7 +2353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -2330,7 +2361,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>76</v>
       </c>
@@ -2338,7 +2369,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>76</v>
       </c>
@@ -2346,7 +2377,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>76</v>
       </c>
@@ -2354,7 +2385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>76</v>
       </c>
@@ -2362,7 +2393,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>76</v>
       </c>
@@ -2370,7 +2401,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -2378,7 +2409,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>76</v>
       </c>
@@ -2386,7 +2417,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>76</v>
       </c>
@@ -2394,7 +2425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>76</v>
       </c>
@@ -2402,7 +2433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>76</v>
       </c>
@@ -2410,7 +2441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>76</v>
       </c>
@@ -2418,7 +2449,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -2426,7 +2457,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>76</v>
       </c>
@@ -2434,7 +2465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>76</v>
       </c>
@@ -2448,7 +2479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>76</v>
       </c>
@@ -2462,7 +2493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>76</v>
       </c>
@@ -2476,7 +2507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>76</v>
       </c>
@@ -2490,7 +2521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>76</v>
       </c>
@@ -2504,7 +2535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>76</v>
       </c>
@@ -2518,7 +2549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>76</v>
       </c>
@@ -2532,7 +2563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>76</v>
       </c>
@@ -2546,7 +2577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>76</v>
       </c>
@@ -2560,7 +2591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>76</v>
       </c>
@@ -2574,7 +2605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>76</v>
       </c>
@@ -2588,7 +2619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>76</v>
       </c>
@@ -2602,7 +2633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>76</v>
       </c>
@@ -2616,7 +2647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>76</v>
       </c>
@@ -2630,7 +2661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>76</v>
       </c>
@@ -2644,7 +2675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>76</v>
       </c>
@@ -2658,7 +2689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>76</v>
       </c>
@@ -2672,7 +2703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>76</v>
       </c>
@@ -2686,7 +2717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>76</v>
       </c>
@@ -2700,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>76</v>
       </c>
@@ -2714,7 +2745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>76</v>
       </c>
@@ -2728,7 +2759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>76</v>
       </c>
@@ -2742,7 +2773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>76</v>
       </c>
@@ -2756,7 +2787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>76</v>
       </c>
@@ -2770,7 +2801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>76</v>
       </c>
@@ -2784,7 +2815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>76</v>
       </c>
@@ -2798,7 +2829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>76</v>
       </c>
@@ -2812,7 +2843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>76</v>
       </c>
@@ -2826,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>76</v>
       </c>
@@ -2840,7 +2871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>76</v>
       </c>
@@ -2854,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -2868,7 +2899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>76</v>
       </c>
@@ -2882,7 +2913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>76</v>
       </c>
@@ -2896,7 +2927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>76</v>
       </c>
@@ -2910,7 +2941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>76</v>
       </c>
@@ -2924,7 +2955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>76</v>
       </c>
@@ -2938,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>76</v>
       </c>
@@ -2952,7 +2983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>76</v>
       </c>
@@ -2966,7 +2997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>76</v>
       </c>
@@ -2980,7 +3011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>76</v>
       </c>
@@ -2994,7 +3025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>76</v>
       </c>
@@ -3008,7 +3039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>76</v>
       </c>
@@ -3022,7 +3053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>76</v>
       </c>
@@ -3036,7 +3067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>76</v>
       </c>
@@ -3050,7 +3081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>76</v>
       </c>
@@ -3064,7 +3095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>76</v>
       </c>
@@ -3078,7 +3109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>76</v>
       </c>
@@ -3092,7 +3123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>76</v>
       </c>
@@ -3106,7 +3137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>76</v>
       </c>
@@ -3120,7 +3151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>77</v>
       </c>
@@ -3128,7 +3159,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>77</v>
       </c>
@@ -3136,7 +3167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>77</v>
       </c>
@@ -3144,7 +3175,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>77</v>
       </c>
@@ -3152,7 +3183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>77</v>
       </c>
@@ -3160,7 +3191,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>77</v>
       </c>
@@ -3168,7 +3199,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>77</v>
       </c>
@@ -3176,7 +3207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>77</v>
       </c>
@@ -3184,7 +3215,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>77</v>
       </c>
@@ -3192,7 +3223,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>77</v>
       </c>
@@ -3200,7 +3231,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>77</v>
       </c>
@@ -3208,7 +3239,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>77</v>
       </c>
@@ -3216,7 +3247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>77</v>
       </c>
@@ -3224,7 +3255,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>77</v>
       </c>
@@ -3232,7 +3263,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>77</v>
       </c>
@@ -3240,7 +3271,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>77</v>
       </c>
@@ -3248,7 +3279,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>77</v>
       </c>
@@ -3256,7 +3287,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>77</v>
       </c>
@@ -3264,7 +3295,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>77</v>
       </c>
@@ -3272,7 +3303,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>77</v>
       </c>
@@ -3280,7 +3311,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>77</v>
       </c>
@@ -3288,7 +3319,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>77</v>
       </c>
@@ -3296,7 +3327,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>77</v>
       </c>
@@ -3304,7 +3335,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>77</v>
       </c>
@@ -3312,7 +3343,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>77</v>
       </c>
@@ -3320,7 +3351,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>77</v>
       </c>
@@ -3328,7 +3359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>77</v>
       </c>
@@ -3336,7 +3367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>77</v>
       </c>
@@ -3344,7 +3375,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>77</v>
       </c>
@@ -3352,7 +3383,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>77</v>
       </c>
@@ -3360,7 +3391,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>77</v>
       </c>
@@ -3368,7 +3399,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>77</v>
       </c>
@@ -3376,7 +3407,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>77</v>
       </c>
@@ -3384,7 +3415,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>77</v>
       </c>
@@ -3392,7 +3423,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>77</v>
       </c>
@@ -3400,7 +3431,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>77</v>
       </c>
@@ -3414,7 +3445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>77</v>
       </c>
@@ -3428,7 +3459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>77</v>
       </c>
@@ -3442,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>77</v>
       </c>
@@ -3456,7 +3487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>77</v>
       </c>
@@ -3470,7 +3501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>77</v>
       </c>
@@ -3484,7 +3515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>77</v>
       </c>
@@ -3498,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>77</v>
       </c>
@@ -3512,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>77</v>
       </c>
@@ -3526,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>77</v>
       </c>
@@ -3540,7 +3571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>77</v>
       </c>
@@ -3554,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>77</v>
       </c>
@@ -3568,7 +3599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>77</v>
       </c>
@@ -3582,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>77</v>
       </c>
@@ -3596,7 +3627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>77</v>
       </c>
@@ -3610,7 +3641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>77</v>
       </c>
@@ -3624,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>77</v>
       </c>
@@ -3638,7 +3669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>77</v>
       </c>
@@ -3652,7 +3683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>77</v>
       </c>
@@ -3666,7 +3697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>77</v>
       </c>
@@ -3680,7 +3711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>77</v>
       </c>
@@ -3694,7 +3725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>77</v>
       </c>
@@ -3708,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>77</v>
       </c>
@@ -3722,7 +3753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>77</v>
       </c>
@@ -3736,7 +3767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>77</v>
       </c>
@@ -3750,7 +3781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>77</v>
       </c>
@@ -3764,7 +3795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>77</v>
       </c>
@@ -3778,7 +3809,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" t="s">
+        <v>77</v>
+      </c>
       <c r="B210" t="s">
         <v>12</v>
       </c>
@@ -3789,7 +3823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>77</v>
       </c>
@@ -3803,7 +3837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>77</v>
       </c>
@@ -3817,7 +3851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>77</v>
       </c>
@@ -3831,7 +3865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>77</v>
       </c>
@@ -3845,7 +3879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>77</v>
       </c>
@@ -3859,7 +3893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>77</v>
       </c>
@@ -3873,7 +3907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>77</v>
       </c>
@@ -3887,7 +3921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>108</v>
       </c>
@@ -3895,7 +3929,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>108</v>
       </c>
@@ -3903,7 +3937,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>108</v>
       </c>
@@ -3911,7 +3945,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>108</v>
       </c>
@@ -3919,7 +3953,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>108</v>
       </c>
@@ -3927,7 +3961,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>108</v>
       </c>
@@ -3935,7 +3969,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>108</v>
       </c>
@@ -3943,7 +3977,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>108</v>
       </c>
@@ -3951,7 +3985,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>108</v>
       </c>
@@ -3959,7 +3993,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>108</v>
       </c>
@@ -3967,7 +4001,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>108</v>
       </c>
@@ -3975,7 +4009,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>108</v>
       </c>
@@ -3983,7 +4017,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>108</v>
       </c>
@@ -3991,7 +4025,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>108</v>
       </c>
@@ -3999,7 +4033,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>108</v>
       </c>
@@ -4007,7 +4041,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>108</v>
       </c>
@@ -4015,7 +4049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>108</v>
       </c>
@@ -4023,7 +4057,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>108</v>
       </c>
@@ -4031,7 +4065,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>108</v>
       </c>
@@ -4039,7 +4073,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>108</v>
       </c>
@@ -4047,7 +4081,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>108</v>
       </c>
@@ -4055,7 +4089,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>108</v>
       </c>
@@ -4063,7 +4097,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>108</v>
       </c>
@@ -4071,7 +4105,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>108</v>
       </c>
@@ -4079,7 +4113,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>108</v>
       </c>
@@ -4087,7 +4121,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>108</v>
       </c>
@@ -4095,7 +4129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>108</v>
       </c>
@@ -4103,7 +4137,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>108</v>
       </c>
@@ -4111,7 +4145,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>108</v>
       </c>
@@ -4119,7 +4153,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>108</v>
       </c>
@@ -4127,7 +4161,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>108</v>
       </c>
@@ -4135,7 +4169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>108</v>
       </c>
@@ -4143,7 +4177,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>108</v>
       </c>
@@ -4151,7 +4185,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>108</v>
       </c>
@@ -4159,7 +4193,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>108</v>
       </c>
@@ -4167,7 +4201,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>108</v>
       </c>
@@ -4175,7 +4209,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>108</v>
       </c>
@@ -4183,7 +4217,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>108</v>
       </c>
@@ -4191,7 +4225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>108</v>
       </c>
@@ -4199,7 +4233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>108</v>
       </c>
@@ -4207,7 +4241,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>108</v>
       </c>
@@ -4215,7 +4249,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>108</v>
       </c>
@@ -4223,7 +4257,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>108</v>
       </c>
@@ -4231,7 +4265,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>108</v>
       </c>
@@ -4239,7 +4273,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>108</v>
       </c>
@@ -4247,7 +4281,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>108</v>
       </c>
@@ -4255,7 +4289,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>108</v>
       </c>
@@ -4263,7 +4297,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>108</v>
       </c>
@@ -4271,7 +4305,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>108</v>
       </c>
@@ -4279,7 +4313,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>108</v>
       </c>
@@ -4287,7 +4321,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>108</v>
       </c>
@@ -4295,7 +4329,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>108</v>
       </c>
@@ -4303,7 +4337,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>108</v>
       </c>
@@ -4311,7 +4345,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>108</v>
       </c>
@@ -4319,7 +4353,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>108</v>
       </c>
@@ -4327,7 +4361,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>108</v>
       </c>
@@ -4335,7 +4369,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>108</v>
       </c>
@@ -4343,7 +4377,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>108</v>
       </c>
@@ -4351,7 +4385,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>108</v>
       </c>
@@ -4359,7 +4393,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>108</v>
       </c>
@@ -4367,7 +4401,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>108</v>
       </c>
@@ -4381,7 +4415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>108</v>
       </c>
@@ -4395,7 +4429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>108</v>
       </c>
@@ -4409,7 +4443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>108</v>
       </c>
@@ -4423,7 +4457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>108</v>
       </c>
@@ -4437,7 +4471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>108</v>
       </c>
@@ -4451,7 +4485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>108</v>
       </c>
@@ -4465,7 +4499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>108</v>
       </c>
@@ -4479,7 +4513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>108</v>
       </c>
@@ -4493,7 +4527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>108</v>
       </c>
@@ -4507,7 +4541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>108</v>
       </c>
@@ -4521,7 +4555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>108</v>
       </c>
@@ -4535,7 +4569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>108</v>
       </c>
@@ -4549,7 +4583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>108</v>
       </c>
@@ -4563,7 +4597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>108</v>
       </c>
@@ -4577,7 +4611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>108</v>
       </c>
@@ -4591,7 +4625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>108</v>
       </c>
@@ -4605,7 +4639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>108</v>
       </c>
@@ -4619,7 +4653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>108</v>
       </c>
@@ -4633,7 +4667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>108</v>
       </c>
@@ -4647,7 +4681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>108</v>
       </c>
@@ -4661,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>108</v>
       </c>
@@ -4675,7 +4709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>108</v>
       </c>
@@ -4689,7 +4723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>108</v>
       </c>
@@ -4703,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>108</v>
       </c>
@@ -4717,7 +4751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>108</v>
       </c>
@@ -4731,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>108</v>
       </c>
@@ -4745,7 +4779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>108</v>
       </c>
@@ -4759,7 +4793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>108</v>
       </c>
@@ -4773,7 +4807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>108</v>
       </c>
@@ -4787,7 +4821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>108</v>
       </c>
@@ -4801,7 +4835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>108</v>
       </c>
@@ -4815,7 +4849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>108</v>
       </c>
@@ -4829,7 +4863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>108</v>
       </c>
@@ -4843,7 +4877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>108</v>
       </c>
@@ -4857,7 +4891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>108</v>
       </c>
@@ -4871,7 +4905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>108</v>
       </c>
@@ -4885,7 +4919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>108</v>
       </c>
@@ -4899,7 +4933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>108</v>
       </c>
@@ -4913,7 +4947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>108</v>
       </c>
@@ -4927,7 +4961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>108</v>
       </c>
@@ -4941,7 +4975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>108</v>
       </c>
@@ -4955,7 +4989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>108</v>
       </c>
@@ -4969,7 +5003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>108</v>
       </c>
@@ -4983,7 +5017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>108</v>
       </c>
@@ -4997,7 +5031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>108</v>
       </c>
@@ -5011,7 +5045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>108</v>
       </c>
@@ -5025,7 +5059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>108</v>
       </c>
@@ -5039,7 +5073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>108</v>
       </c>
@@ -5053,7 +5087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>108</v>
       </c>
@@ -5067,7 +5101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>108</v>
       </c>
@@ -5081,7 +5115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>108</v>
       </c>
@@ -5095,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>108</v>
       </c>
@@ -5109,7 +5143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>108</v>
       </c>
@@ -5123,7 +5157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>108</v>
       </c>
@@ -5137,7 +5171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>108</v>
       </c>
@@ -5151,7 +5185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>108</v>
       </c>
@@ -5165,7 +5199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>108</v>
       </c>
@@ -5179,7 +5213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>108</v>
       </c>
@@ -5193,7 +5227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>156</v>
       </c>
@@ -5201,7 +5235,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>156</v>
       </c>
@@ -5209,7 +5243,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>156</v>
       </c>
@@ -5217,7 +5251,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>156</v>
       </c>
@@ -5225,7 +5259,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>156</v>
       </c>
@@ -5233,7 +5267,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>156</v>
       </c>
@@ -5241,7 +5275,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>156</v>
       </c>
@@ -5249,7 +5283,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>156</v>
       </c>
@@ -5257,7 +5291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>156</v>
       </c>
@@ -5265,7 +5299,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>156</v>
       </c>
@@ -5273,7 +5307,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>156</v>
       </c>
@@ -5281,7 +5315,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>156</v>
       </c>
@@ -5289,7 +5323,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>156</v>
       </c>
@@ -5297,7 +5331,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>156</v>
       </c>
@@ -5305,7 +5339,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>156</v>
       </c>
@@ -5313,7 +5347,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>156</v>
       </c>
@@ -5321,7 +5355,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>156</v>
       </c>
@@ -5329,7 +5363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>156</v>
       </c>
@@ -5337,7 +5371,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>156</v>
       </c>
@@ -5345,7 +5379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>156</v>
       </c>
@@ -5353,7 +5387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>156</v>
       </c>
@@ -5361,7 +5395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>156</v>
       </c>
@@ -5369,7 +5403,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>156</v>
       </c>
@@ -5377,7 +5411,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>156</v>
       </c>
@@ -5385,7 +5419,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>156</v>
       </c>
@@ -5393,7 +5427,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>156</v>
       </c>
@@ -5401,7 +5435,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>156</v>
       </c>
@@ -5409,7 +5443,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>156</v>
       </c>
@@ -5417,7 +5451,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>156</v>
       </c>
@@ -5425,7 +5459,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>156</v>
       </c>
@@ -5439,7 +5473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>156</v>
       </c>
@@ -5453,7 +5487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>156</v>
       </c>
@@ -5467,7 +5501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>156</v>
       </c>
@@ -5481,7 +5515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>156</v>
       </c>
@@ -5495,7 +5529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>156</v>
       </c>
@@ -5509,7 +5543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>156</v>
       </c>
@@ -5523,7 +5557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>156</v>
       </c>
@@ -5537,7 +5571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>156</v>
       </c>
@@ -5551,7 +5585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>156</v>
       </c>
@@ -5565,7 +5599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>156</v>
       </c>
@@ -5579,7 +5613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>156</v>
       </c>
@@ -5593,7 +5627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>156</v>
       </c>
@@ -5607,7 +5641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>156</v>
       </c>
@@ -5621,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>156</v>
       </c>
@@ -5635,7 +5669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>156</v>
       </c>
@@ -5649,7 +5683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>156</v>
       </c>
@@ -5663,7 +5697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>156</v>
       </c>
@@ -5677,7 +5711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>156</v>
       </c>
@@ -5691,7 +5725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>156</v>
       </c>
@@ -5705,7 +5739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>156</v>
       </c>
@@ -5719,7 +5753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>156</v>
       </c>
@@ -5733,7 +5767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>156</v>
       </c>
@@ -5747,7 +5781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>156</v>
       </c>
@@ -5761,7 +5795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>156</v>
       </c>
@@ -5775,7 +5809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>156</v>
       </c>
@@ -5789,7 +5823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>156</v>
       </c>
@@ -5803,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>156</v>
       </c>
@@ -5817,7 +5851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>157</v>
       </c>
@@ -5825,7 +5859,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>157</v>
       </c>
@@ -5833,7 +5867,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>157</v>
       </c>
@@ -5841,7 +5875,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>157</v>
       </c>
@@ -5849,7 +5883,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>157</v>
       </c>
@@ -5857,7 +5891,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>157</v>
       </c>
@@ -5865,7 +5899,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>157</v>
       </c>
@@ -5873,7 +5907,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>157</v>
       </c>
@@ -5881,7 +5915,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>157</v>
       </c>
@@ -5889,7 +5923,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>157</v>
       </c>
@@ -5897,7 +5931,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>157</v>
       </c>
@@ -5905,7 +5939,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>157</v>
       </c>
@@ -5913,7 +5947,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>157</v>
       </c>
@@ -5921,7 +5955,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>157</v>
       </c>
@@ -5929,7 +5963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>157</v>
       </c>
@@ -5937,7 +5971,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>157</v>
       </c>
@@ -5945,7 +5979,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>157</v>
       </c>
@@ -5953,7 +5987,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>157</v>
       </c>
@@ -5961,7 +5995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>157</v>
       </c>
@@ -5969,7 +6003,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>157</v>
       </c>
@@ -5977,7 +6011,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>157</v>
       </c>
@@ -5985,7 +6019,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>157</v>
       </c>
@@ -5993,7 +6027,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>157</v>
       </c>
@@ -6001,7 +6035,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>157</v>
       </c>
@@ -6009,7 +6043,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>157</v>
       </c>
@@ -6017,7 +6051,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>157</v>
       </c>
@@ -6025,7 +6059,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>157</v>
       </c>
@@ -6033,7 +6067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>157</v>
       </c>
@@ -6047,7 +6081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>157</v>
       </c>
@@ -6061,7 +6095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>157</v>
       </c>
@@ -6075,7 +6109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>157</v>
       </c>
@@ -6089,7 +6123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>157</v>
       </c>
@@ -6103,7 +6137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>157</v>
       </c>
@@ -6117,7 +6151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>157</v>
       </c>
@@ -6131,7 +6165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>157</v>
       </c>
@@ -6145,7 +6179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>157</v>
       </c>
@@ -6159,7 +6193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>157</v>
       </c>
@@ -6173,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>157</v>
       </c>
@@ -6187,7 +6221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>157</v>
       </c>
@@ -6201,7 +6235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>157</v>
       </c>
@@ -6215,7 +6249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>157</v>
       </c>
@@ -6229,7 +6263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>157</v>
       </c>
@@ -6243,7 +6277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>157</v>
       </c>
@@ -6257,7 +6291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>157</v>
       </c>
@@ -6271,7 +6305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>157</v>
       </c>
@@ -6285,7 +6319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>157</v>
       </c>
@@ -6299,7 +6333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>157</v>
       </c>
@@ -6313,7 +6347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>157</v>
       </c>
@@ -6327,7 +6361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>157</v>
       </c>
@@ -6341,7 +6375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>157</v>
       </c>
@@ -6355,7 +6389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>157</v>
       </c>
@@ -6369,7 +6403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>157</v>
       </c>
@@ -6383,7 +6417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>157</v>
       </c>
@@ -6397,7 +6431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>202</v>
       </c>
@@ -6405,7 +6439,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>202</v>
       </c>
@@ -6413,7 +6447,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>202</v>
       </c>
@@ -6421,7 +6455,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>202</v>
       </c>
@@ -6429,7 +6463,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>202</v>
       </c>
@@ -6437,7 +6471,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>202</v>
       </c>
@@ -6445,7 +6479,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>202</v>
       </c>
@@ -6453,7 +6487,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>202</v>
       </c>
@@ -6461,7 +6495,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>202</v>
       </c>
@@ -6469,7 +6503,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>202</v>
       </c>
@@ -6477,7 +6511,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>202</v>
       </c>
@@ -6485,7 +6519,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>202</v>
       </c>
@@ -6493,7 +6527,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>202</v>
       </c>
@@ -6501,7 +6535,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>202</v>
       </c>
@@ -6509,7 +6543,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>202</v>
       </c>
@@ -6517,7 +6551,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>202</v>
       </c>
@@ -6525,7 +6559,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>202</v>
       </c>
@@ -6533,7 +6567,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>202</v>
       </c>
@@ -6541,7 +6575,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>202</v>
       </c>
@@ -6549,7 +6583,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>202</v>
       </c>
@@ -6557,7 +6591,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>202</v>
       </c>
@@ -6565,7 +6599,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>202</v>
       </c>
@@ -6573,7 +6607,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>202</v>
       </c>
@@ -6581,7 +6615,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>202</v>
       </c>
@@ -6589,7 +6623,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>202</v>
       </c>
@@ -6597,7 +6631,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>202</v>
       </c>
@@ -6605,7 +6639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>202</v>
       </c>
@@ -6613,7 +6647,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>202</v>
       </c>
@@ -6621,7 +6655,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>202</v>
       </c>
@@ -6629,7 +6663,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>202</v>
       </c>
@@ -6637,7 +6671,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>202</v>
       </c>
@@ -6645,7 +6679,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>202</v>
       </c>
@@ -6653,7 +6687,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>202</v>
       </c>
@@ -6661,7 +6695,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>202</v>
       </c>
@@ -6669,7 +6703,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>202</v>
       </c>
@@ -6683,7 +6717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>202</v>
       </c>
@@ -6697,7 +6731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>202</v>
       </c>
@@ -6711,7 +6745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>202</v>
       </c>
@@ -6725,7 +6759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>202</v>
       </c>
@@ -6739,7 +6773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>202</v>
       </c>
@@ -6753,7 +6787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>202</v>
       </c>
@@ -6767,7 +6801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>202</v>
       </c>
@@ -6781,7 +6815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>202</v>
       </c>
@@ -6795,7 +6829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>202</v>
       </c>
@@ -6809,7 +6843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>202</v>
       </c>
@@ -6823,7 +6857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>202</v>
       </c>
@@ -6837,7 +6871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>202</v>
       </c>
@@ -6851,7 +6885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>202</v>
       </c>
@@ -6865,7 +6899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>202</v>
       </c>
@@ -6879,7 +6913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>202</v>
       </c>
@@ -6893,7 +6927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>202</v>
       </c>
@@ -6907,7 +6941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>202</v>
       </c>
@@ -6921,7 +6955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>202</v>
       </c>
@@ -6935,7 +6969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>202</v>
       </c>
@@ -6949,7 +6983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>202</v>
       </c>
@@ -6963,7 +6997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>202</v>
       </c>
@@ -6977,7 +7011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>202</v>
       </c>
@@ -6991,7 +7025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>202</v>
       </c>
@@ -7005,7 +7039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>202</v>
       </c>
@@ -7019,7 +7053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>202</v>
       </c>
@@ -7033,7 +7067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>202</v>
       </c>
@@ -7047,7 +7081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>202</v>
       </c>
@@ -7061,7 +7095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>202</v>
       </c>
@@ -7075,7 +7109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>202</v>
       </c>
@@ -7089,7 +7123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>202</v>
       </c>
@@ -7103,7 +7137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>202</v>
       </c>
@@ -7117,7 +7151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>202</v>
       </c>
@@ -7131,7 +7165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>202</v>
       </c>
@@ -7145,7 +7179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>202</v>
       </c>
@@ -7159,7 +7193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>202</v>
       </c>
@@ -7173,7 +7207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>235</v>
       </c>
@@ -7181,7 +7215,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>235</v>
       </c>
@@ -7189,7 +7223,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>235</v>
       </c>
@@ -7197,7 +7231,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>235</v>
       </c>
@@ -7205,7 +7239,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>235</v>
       </c>
@@ -7213,7 +7247,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>235</v>
       </c>
@@ -7221,7 +7255,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>235</v>
       </c>
@@ -7229,7 +7263,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>235</v>
       </c>
@@ -7237,7 +7271,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>235</v>
       </c>
@@ -7245,7 +7279,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>235</v>
       </c>
@@ -7253,7 +7287,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>235</v>
       </c>
@@ -7261,7 +7295,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>235</v>
       </c>
@@ -7269,7 +7303,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>235</v>
       </c>
@@ -7277,7 +7311,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>235</v>
       </c>
@@ -7285,7 +7319,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>235</v>
       </c>
@@ -7293,7 +7327,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>235</v>
       </c>
@@ -7301,7 +7335,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>235</v>
       </c>
@@ -7309,7 +7343,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>235</v>
       </c>
@@ -7317,7 +7351,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>235</v>
       </c>
@@ -7325,7 +7359,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>235</v>
       </c>
@@ -7333,7 +7367,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>235</v>
       </c>
@@ -7341,7 +7375,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>235</v>
       </c>
@@ -7349,7 +7383,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>235</v>
       </c>
@@ -7357,7 +7391,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>235</v>
       </c>
@@ -7365,7 +7399,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>235</v>
       </c>
@@ -7373,7 +7407,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>235</v>
       </c>
@@ -7381,7 +7415,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>235</v>
       </c>
@@ -7389,7 +7423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>235</v>
       </c>
@@ -7397,7 +7431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>235</v>
       </c>
@@ -7405,7 +7439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>235</v>
       </c>
@@ -7413,7 +7447,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>235</v>
       </c>
@@ -7421,7 +7455,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>235</v>
       </c>
@@ -7429,7 +7463,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>235</v>
       </c>
@@ -7437,7 +7471,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>235</v>
       </c>
@@ -7445,7 +7479,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>235</v>
       </c>
@@ -7453,7 +7487,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>235</v>
       </c>
@@ -7461,7 +7495,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>235</v>
       </c>
@@ -7469,7 +7503,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>235</v>
       </c>
@@ -7477,7 +7511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>235</v>
       </c>
@@ -7485,7 +7519,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>235</v>
       </c>
@@ -7493,7 +7527,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>235</v>
       </c>
@@ -7501,7 +7535,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>235</v>
       </c>
@@ -7509,7 +7543,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>235</v>
       </c>
@@ -7517,7 +7551,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>235</v>
       </c>
@@ -7525,7 +7559,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>235</v>
       </c>
@@ -7533,7 +7567,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>235</v>
       </c>
@@ -7541,7 +7575,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>235</v>
       </c>
@@ -7549,7 +7583,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>235</v>
       </c>
@@ -7557,7 +7591,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>235</v>
       </c>
@@ -7565,7 +7599,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>235</v>
       </c>
@@ -7573,7 +7607,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>235</v>
       </c>
@@ -7587,7 +7621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>235</v>
       </c>
@@ -7601,7 +7635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>235</v>
       </c>
@@ -7615,7 +7649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>235</v>
       </c>
@@ -7629,7 +7663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>235</v>
       </c>
@@ -7643,7 +7677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>235</v>
       </c>
@@ -7657,7 +7691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>235</v>
       </c>
@@ -7671,7 +7705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>235</v>
       </c>
@@ -7685,7 +7719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>235</v>
       </c>
@@ -7699,7 +7733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>235</v>
       </c>
@@ -7713,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>235</v>
       </c>
@@ -7727,7 +7761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>235</v>
       </c>
@@ -7741,7 +7775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>235</v>
       </c>
@@ -7755,7 +7789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>235</v>
       </c>
@@ -7769,7 +7803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>235</v>
       </c>
@@ -7783,7 +7817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>235</v>
       </c>
@@ -7797,7 +7831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>235</v>
       </c>
@@ -7811,7 +7845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>235</v>
       </c>
@@ -7825,7 +7859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>235</v>
       </c>
@@ -7839,7 +7873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>235</v>
       </c>
@@ -7853,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>235</v>
       </c>
@@ -7867,7 +7901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>235</v>
       </c>
@@ -7881,7 +7915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>235</v>
       </c>
@@ -7895,7 +7929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>235</v>
       </c>
@@ -7909,7 +7943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>235</v>
       </c>
@@ -7923,7 +7957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>235</v>
       </c>
@@ -7937,7 +7971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>235</v>
       </c>
@@ -7951,7 +7985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>235</v>
       </c>
@@ -7965,7 +7999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>235</v>
       </c>
@@ -7979,7 +8013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>235</v>
       </c>
@@ -7993,7 +8027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>235</v>
       </c>
@@ -8007,7 +8041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>235</v>
       </c>
@@ -8021,7 +8055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>235</v>
       </c>
@@ -8035,7 +8069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>235</v>
       </c>
@@ -8049,7 +8083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>235</v>
       </c>
@@ -8063,7 +8097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>235</v>
       </c>
@@ -8077,7 +8111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>235</v>
       </c>
@@ -8091,7 +8125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>235</v>
       </c>
@@ -8105,7 +8139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>235</v>
       </c>
@@ -8119,7 +8153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>235</v>
       </c>
@@ -8133,7 +8167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>235</v>
       </c>
@@ -8147,7 +8181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>235</v>
       </c>
@@ -8161,7 +8195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>235</v>
       </c>
@@ -8175,7 +8209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>235</v>
       </c>
@@ -8189,7 +8223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>235</v>
       </c>
@@ -8203,7 +8237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>235</v>
       </c>
@@ -8217,7 +8251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>235</v>
       </c>
@@ -8231,7 +8265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>235</v>
       </c>
@@ -8245,7 +8279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>235</v>
       </c>
@@ -8259,7 +8293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>235</v>
       </c>
@@ -8273,7 +8307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>235</v>
       </c>
@@ -8287,7 +8321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>245</v>
       </c>
@@ -8295,7 +8329,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>245</v>
       </c>
@@ -8303,7 +8337,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>245</v>
       </c>
@@ -8311,7 +8345,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>245</v>
       </c>
@@ -8319,7 +8353,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>245</v>
       </c>
@@ -8327,7 +8361,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>245</v>
       </c>
@@ -8335,7 +8369,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>245</v>
       </c>
@@ -8343,7 +8377,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>245</v>
       </c>
@@ -8351,7 +8385,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>245</v>
       </c>
@@ -8359,7 +8393,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>245</v>
       </c>
@@ -8367,7 +8401,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>245</v>
       </c>
@@ -8375,7 +8409,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>245</v>
       </c>
@@ -8383,7 +8417,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>245</v>
       </c>
@@ -8391,7 +8425,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>245</v>
       </c>
@@ -8399,7 +8433,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>245</v>
       </c>
@@ -8407,7 +8441,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>245</v>
       </c>
@@ -8415,7 +8449,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>245</v>
       </c>
@@ -8423,7 +8457,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>245</v>
       </c>
@@ -8431,7 +8465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>245</v>
       </c>
@@ -8439,7 +8473,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>245</v>
       </c>
@@ -8447,7 +8481,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>245</v>
       </c>
@@ -8455,7 +8489,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>245</v>
       </c>
@@ -8463,7 +8497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>245</v>
       </c>
@@ -8471,7 +8505,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>245</v>
       </c>
@@ -8479,7 +8513,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>245</v>
       </c>
@@ -8487,7 +8521,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>245</v>
       </c>
@@ -8495,7 +8529,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>245</v>
       </c>
@@ -8503,7 +8537,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>245</v>
       </c>
@@ -8511,7 +8545,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>245</v>
       </c>
@@ -8519,7 +8553,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>245</v>
       </c>
@@ -8527,7 +8561,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>245</v>
       </c>
@@ -8535,7 +8569,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>245</v>
       </c>
@@ -8543,7 +8577,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>245</v>
       </c>
@@ -8551,7 +8585,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>245</v>
       </c>
@@ -8559,7 +8593,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>245</v>
       </c>
@@ -8567,7 +8601,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>245</v>
       </c>
@@ -8575,7 +8609,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>245</v>
       </c>
@@ -8583,7 +8617,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>245</v>
       </c>
@@ -8591,7 +8625,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>245</v>
       </c>
@@ -8599,7 +8633,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>245</v>
       </c>
@@ -8607,7 +8641,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>245</v>
       </c>
@@ -8615,7 +8649,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>245</v>
       </c>
@@ -8623,7 +8657,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>245</v>
       </c>
@@ -8631,7 +8665,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>245</v>
       </c>
@@ -8639,7 +8673,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>245</v>
       </c>
@@ -8647,7 +8681,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>245</v>
       </c>
@@ -8655,7 +8689,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>245</v>
       </c>
@@ -8663,7 +8697,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>245</v>
       </c>
@@ -8671,7 +8705,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>245</v>
       </c>
@@ -8679,7 +8713,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>245</v>
       </c>
@@ -8687,7 +8721,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>245</v>
       </c>
@@ -8695,7 +8729,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>245</v>
       </c>
@@ -8703,7 +8737,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>245</v>
       </c>
@@ -8711,7 +8745,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>245</v>
       </c>
@@ -8725,7 +8759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>245</v>
       </c>
@@ -8739,7 +8773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>245</v>
       </c>
@@ -8753,7 +8787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>245</v>
       </c>
@@ -8767,7 +8801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>245</v>
       </c>
@@ -8781,7 +8815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>245</v>
       </c>
@@ -8795,7 +8829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>245</v>
       </c>
@@ -8809,7 +8843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>245</v>
       </c>
@@ -8823,7 +8857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>245</v>
       </c>
@@ -8837,7 +8871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>245</v>
       </c>
@@ -8851,7 +8885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>245</v>
       </c>
@@ -8865,7 +8899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>245</v>
       </c>
@@ -8879,7 +8913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>245</v>
       </c>
@@ -8893,7 +8927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>245</v>
       </c>
@@ -8907,7 +8941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>245</v>
       </c>
@@ -8921,7 +8955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>245</v>
       </c>
@@ -8935,7 +8969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>245</v>
       </c>
@@ -8949,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>245</v>
       </c>
@@ -8963,7 +8997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>245</v>
       </c>
@@ -8977,7 +9011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>245</v>
       </c>
@@ -8991,7 +9025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>245</v>
       </c>
@@ -9005,7 +9039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>245</v>
       </c>
@@ -9019,7 +9053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>245</v>
       </c>
@@ -9033,7 +9067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>245</v>
       </c>
@@ -9047,7 +9081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>245</v>
       </c>
@@ -9061,7 +9095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>245</v>
       </c>
@@ -9075,7 +9109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>245</v>
       </c>
@@ -9089,7 +9123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>245</v>
       </c>
@@ -9103,7 +9137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>245</v>
       </c>
@@ -9117,7 +9151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>245</v>
       </c>
@@ -9131,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>245</v>
       </c>
@@ -9145,7 +9179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>245</v>
       </c>
@@ -9159,7 +9193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>245</v>
       </c>
@@ -9173,7 +9207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>245</v>
       </c>
@@ -9187,7 +9221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>245</v>
       </c>
@@ -9201,7 +9235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>245</v>
       </c>
@@ -9215,7 +9249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>245</v>
       </c>
@@ -9229,7 +9263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>245</v>
       </c>
@@ -9243,7 +9277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>245</v>
       </c>
@@ -9257,7 +9291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>245</v>
       </c>
@@ -9271,7 +9305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>245</v>
       </c>
@@ -9285,7 +9319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>245</v>
       </c>
@@ -9299,7 +9333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>245</v>
       </c>
@@ -9313,7 +9347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>245</v>
       </c>
@@ -9327,7 +9361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>245</v>
       </c>
@@ -9341,7 +9375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>245</v>
       </c>
@@ -9355,7 +9389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>245</v>
       </c>
@@ -9369,7 +9403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>245</v>
       </c>
@@ -9383,7 +9417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>245</v>
       </c>
@@ -9397,7 +9431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>245</v>
       </c>
@@ -9411,7 +9445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>245</v>
       </c>
@@ -9425,7 +9459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>245</v>
       </c>
@@ -9439,7 +9473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>245</v>
       </c>
@@ -9453,7 +9487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>98</v>
       </c>
@@ -9461,7 +9495,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>98</v>
       </c>
@@ -9469,7 +9503,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>98</v>
       </c>
@@ -9477,7 +9511,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>98</v>
       </c>
@@ -9485,7 +9519,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>98</v>
       </c>
@@ -9493,7 +9527,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>98</v>
       </c>
@@ -9501,7 +9535,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>98</v>
       </c>
@@ -9509,7 +9543,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>98</v>
       </c>
@@ -9517,7 +9551,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>98</v>
       </c>
@@ -9525,7 +9559,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>98</v>
       </c>
@@ -9533,7 +9567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>98</v>
       </c>
@@ -9541,7 +9575,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>98</v>
       </c>
@@ -9549,7 +9583,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>98</v>
       </c>
@@ -9557,7 +9591,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>98</v>
       </c>
@@ -9565,7 +9599,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>98</v>
       </c>
@@ -9573,7 +9607,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>98</v>
       </c>
@@ -9581,7 +9615,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>98</v>
       </c>
@@ -9595,7 +9629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>98</v>
       </c>
@@ -9609,7 +9643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>98</v>
       </c>
@@ -9623,7 +9657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>98</v>
       </c>
@@ -9637,7 +9671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>98</v>
       </c>
@@ -9651,7 +9685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>98</v>
       </c>
@@ -9665,7 +9699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>98</v>
       </c>
@@ -9679,7 +9713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>98</v>
       </c>
@@ -9693,7 +9727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>98</v>
       </c>
@@ -9707,7 +9741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>98</v>
       </c>
@@ -9721,7 +9755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>98</v>
       </c>
@@ -9735,7 +9769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>98</v>
       </c>
@@ -9749,7 +9783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>98</v>
       </c>
@@ -9763,7 +9797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>98</v>
       </c>
@@ -9777,7 +9811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>98</v>
       </c>
@@ -9791,7 +9825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>289</v>
       </c>
@@ -9799,7 +9833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>289</v>
       </c>
@@ -9807,7 +9841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>289</v>
       </c>
